--- a/Team-Data/2007-08/1-24-2007-08.xlsx
+++ b/Team-Data/2007-08/1-24-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -798,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -980,13 +1047,13 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>4</v>
@@ -1147,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
@@ -1162,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1314,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
@@ -1362,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1505,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
@@ -1529,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
         <v>18</v>
@@ -1541,7 +1608,7 @@
         <v>22</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2045,13 +2112,13 @@
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J10" t="n">
-        <v>88.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
         <v>9.800000000000001</v>
@@ -2152,55 +2219,55 @@
         <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
         <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>22.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.3</v>
+        <v>109</v>
       </c>
       <c r="AC10" t="n">
         <v>1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
@@ -2233,16 +2300,16 @@
         <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>19</v>
@@ -2260,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2418,7 +2485,7 @@
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.432</v>
+        <v>0.442</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2513,67 +2580,67 @@
         <v>8.6</v>
       </c>
       <c r="M12" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.759</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
         <v>11.7</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA12" t="n">
         <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2600,13 +2667,13 @@
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2621,10 +2688,10 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2794,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2818,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>5.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2964,10 +3031,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>18</v>
@@ -2979,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>23</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>9</v>
@@ -3143,13 +3210,13 @@
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>18</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3158,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3179,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J16" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O16" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.703</v>
+        <v>0.706</v>
       </c>
       <c r="R16" t="n">
         <v>9.5</v>
@@ -3265,46 +3332,46 @@
         <v>38.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
         <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
         <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3325,13 +3392,13 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
         <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,13 +3413,13 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
@@ -3361,10 +3428,10 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>0.395</v>
+        <v>0.381</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
         <v>80.5</v>
@@ -3420,46 +3487,46 @@
         <v>0.452</v>
       </c>
       <c r="L17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
         <v>17</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.746</v>
       </c>
       <c r="R17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>40.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>6.8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z17" t="n">
         <v>21.8</v>
@@ -3468,16 +3535,16 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.6</v>
+        <v>-6</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -3486,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3498,13 +3565,13 @@
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3513,10 +3580,10 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3525,10 +3592,10 @@
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3537,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
         <v>21</v>
@@ -3546,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-8.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3680,10 +3747,10 @@
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>0.429</v>
+        <v>0.439</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>77.8</v>
+        <v>77.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O19" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9</v>
+        <v>41.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
         <v>15.7</v>
@@ -3820,37 +3887,37 @@
         <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>94</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
         <v>19</v>
       </c>
-      <c r="AG19" t="n">
-        <v>20</v>
-      </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3874,25 +3941,25 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>25</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3901,7 +3968,7 @@
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3910,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4080,10 +4147,10 @@
         <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4095,7 +4162,7 @@
         <v>13</v>
       </c>
       <c r="BC20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4250,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
@@ -4620,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4629,7 +4696,7 @@
         <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4638,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4778,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5121,7 +5188,7 @@
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
         <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,7 +5301,7 @@
         <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.459</v>
@@ -5243,28 +5310,28 @@
         <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.384</v>
+        <v>0.389</v>
       </c>
       <c r="O27" t="n">
         <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
         <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U27" t="n">
         <v>21.9</v>
@@ -5279,34 +5346,34 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z27" t="n">
         <v>18.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5324,16 +5391,16 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5342,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>11</v>
@@ -5363,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5506,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5536,10 +5603,10 @@
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5721,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5879,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6058,13 +6125,13 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>16</v>
@@ -6085,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-24-2007-08</t>
+          <t>2008-01-24</t>
         </is>
       </c>
     </row>
